--- a/public/uploads/template/template_data_sub_kriteria.xlsx
+++ b/public/uploads/template/template_data_sub_kriteria.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CKL-INDONESIA\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\new-spk-mabac\public\uploads\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB65755-2A21-499B-ADE8-153B5A805534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2B0850-7D8B-4AEF-B654-719F17707B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1DCACD35-42A2-4F94-B6F1-0744D4D28657}"/>
   </bookViews>
@@ -25,18 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Kode</t>
+    <t>Deskripsi</t>
   </si>
   <si>
-    <t>Keterangan</t>
-  </si>
-  <si>
-    <t>Jenis</t>
-  </si>
-  <si>
-    <t>Bobot</t>
+    <t>Nilai</t>
   </si>
 </sst>
 </file>
@@ -95,9 +89,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +410,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,12 +426,8 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
